--- a/artfynd/A 9633-2025 artfynd.xlsx
+++ b/artfynd/A 9633-2025 artfynd.xlsx
@@ -1506,7 +1506,7 @@
         <v>130826523</v>
       </c>
       <c r="B10" t="n">
-        <v>56544</v>
+        <v>56548</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
